--- a/medicine/Enfance/Élizabeth_Turgeon/Élizabeth_Turgeon.xlsx
+++ b/medicine/Enfance/Élizabeth_Turgeon/Élizabeth_Turgeon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lizabeth_Turgeon</t>
+          <t>Élizabeth_Turgeon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Élizabeth Turgeon, née en 1951[1] à Amos (Québec, Canada), est une écrivaine jeunesse canadienne. Ses romans ont pour cadre l'Amérique, l'Europe, l'Asie et l'Afrique. Ils  traitent de sujets aussi variés que le bouddhisme, les sciences, la paléontologie, l'histoire de l'art, l'Intelligence artificielle, la géographie, les Incas, les Mayas et les mécanismes d'endoctrinement.
-Elle est inscrite au programme La culture à l'école (Répertoire de ressources culture-éducation)[2].
-Élizabeth Turgeon est membre de l'Union des écrivaines et écrivains québécois (UNEQ[3]) et de Communication-Jeunesse[4]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élizabeth Turgeon, née en 1951 à Amos (Québec, Canada), est une écrivaine jeunesse canadienne. Ses romans ont pour cadre l'Amérique, l'Europe, l'Asie et l'Afrique. Ils  traitent de sujets aussi variés que le bouddhisme, les sciences, la paléontologie, l'histoire de l'art, l'Intelligence artificielle, la géographie, les Incas, les Mayas et les mécanismes d'endoctrinement.
+Elle est inscrite au programme La culture à l'école (Répertoire de ressources culture-éducation).
+Élizabeth Turgeon est membre de l'Union des écrivaines et écrivains québécois (UNEQ) et de Communication-Jeunesse
 </t>
         </is>
       </c>
